--- a/N-发布检查表（模板）-v0.7--youyan想法.xlsx
+++ b/N-发布检查表（模板）-v0.7--youyan想法.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\游妍工作\全创\1、过程改进\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0F3AE6-7F14-4C5F-B00E-DC12081CCE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC76526-D69D-4B00-B8DD-8705820BEAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="2490" windowWidth="2400" windowHeight="585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置管理要求（勿删）" sheetId="9" r:id="rId1"/>
     <sheet name="发布检查清单" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +371,10 @@
   </si>
   <si>
     <t>客户端程序，进行病毒扫描和木马检查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件系统的命名规则，修改号调整为2位比较好，适用于现在的情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E3FFA-1E18-4FAF-B534-E4AE6E001FD8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,12 +1161,12 @@
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="32" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="32" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>46</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="332.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="332.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -1184,8 +1187,11 @@
       <c r="C3" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="216" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="216" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>44</v>
       </c>
@@ -1206,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55FC7FB-8EE6-4029-9BEE-AA5C89B1595F}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
